--- a/ZohoCRM/testdata/testdata.xlsx
+++ b/ZohoCRM/testdata/testdata.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\130PMWorkshop\AutomationWorkspace\ZohoCRM\testdata\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\NIKHIL\git\ZohoCRM\ZohoCRM\testdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E0310EE-2C02-4697-9AD2-774E84C579CA}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F8D823B-0FD2-460E-8A3D-F2E7A281AAB7}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="10590" xr2:uid="{35A76BAD-7A9F-4DE0-807C-6D66394C5386}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{35A76BAD-7A9F-4DE0-807C-6D66394C5386}"/>
   </bookViews>
   <sheets>
     <sheet name="TC001" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="5">
   <si>
     <t>Campaigns</t>
   </si>
@@ -36,7 +36,10 @@
     <t>NavLinkName</t>
   </si>
   <si>
-    <t>CampagnName</t>
+    <t>Moto</t>
+  </si>
+  <si>
+    <t>CampaignName</t>
   </si>
 </sst>
 </file>
@@ -101,11 +104,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -421,15 +427,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B6A16E57-ED3B-42F8-9526-9E4A787E06B4}">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="23" customWidth="1"/>
     <col min="2" max="2" width="19.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -438,7 +444,7 @@
         <v>2</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
@@ -447,6 +453,14 @@
       </c>
       <c r="B2" s="2" t="s">
         <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>3</v>
       </c>
     </row>
   </sheetData>

--- a/ZohoCRM/testdata/testdata.xlsx
+++ b/ZohoCRM/testdata/testdata.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\NIKHIL\git\ZohoCRM\ZohoCRM\testdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F8D823B-0FD2-460E-8A3D-F2E7A281AAB7}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61196D4B-B30C-4F67-88B8-09ABD08FE683}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{35A76BAD-7A9F-4DE0-807C-6D66394C5386}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="12">
   <si>
     <t>Campaigns</t>
   </si>
@@ -40,6 +40,27 @@
   </si>
   <si>
     <t>CampaignName</t>
+  </si>
+  <si>
+    <t>CloneCampaign Name</t>
+  </si>
+  <si>
+    <t>Nokia1</t>
+  </si>
+  <si>
+    <t>Potentials</t>
+  </si>
+  <si>
+    <t>Redmi</t>
+  </si>
+  <si>
+    <t>EditCampaignName</t>
+  </si>
+  <si>
+    <t>Nokia1100</t>
+  </si>
+  <si>
+    <t>MotoE4Plus</t>
   </si>
 </sst>
 </file>
@@ -104,7 +125,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -113,6 +134,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -427,41 +454,72 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B6A16E57-ED3B-42F8-9526-9E4A787E06B4}">
-  <dimension ref="A1:B3"/>
+  <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="23" customWidth="1"/>
     <col min="2" max="2" width="19.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="24.85546875" customWidth="1"/>
+    <col min="4" max="4" width="20.28515625" customWidth="1"/>
+    <col min="5" max="5" width="12.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="19.5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" ht="30.75" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>4</v>
       </c>
+      <c r="C1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>5</v>
+      </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>1</v>
       </c>
+      <c r="C2" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E2" s="4"/>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>0</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>3</v>
       </c>
+      <c r="C3" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D3" s="5"/>
+      <c r="E3" s="4"/>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" s="3"/>
+      <c r="D4" s="7"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
